--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_137743.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_137743.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\OTKA\OTKA_137743\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304DEFF3-D526-42AD-A65C-B528B7BFC9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF71BF81-D0EE-4F9C-851E-676DBB133CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="215">
   <si>
     <t>Fennmaradó 
 egyenleg</t>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>5100014023</t>
+  </si>
+  <si>
+    <t>megbízás</t>
   </si>
 </sst>
 </file>
@@ -4503,7 +4506,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{710FBAD4-A0C2-449C-9908-7C8D4F751535}"/>
+      <autoFilter ref="A3:L77" xr:uid="{AB3AD125-A9A4-4497-8E05-753BBDCB5CDA}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="5">
@@ -4524,9 +4527,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7152,7 +7155,7 @@
         <v>85</v>
       </c>
       <c r="T45" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="U45" s="14">
         <v>1</v>
@@ -7213,7 +7216,7 @@
         <v>85</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7271,7 +7274,7 @@
         <v>85</v>
       </c>
       <c r="T47" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7327,7 +7330,7 @@
       </c>
       <c r="S48" s="60"/>
       <c r="T48" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,7 +7388,7 @@
         <v>85</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7443,7 +7446,7 @@
         <v>85</v>
       </c>
       <c r="T50" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7501,7 +7504,7 @@
         <v>85</v>
       </c>
       <c r="T51" s="27" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9071,7 +9074,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{6566A33C-FC08-4DBB-880F-2B36F19C7415}">
+      <autoFilter ref="A4:AV400" xr:uid="{9035B14F-8FA7-4C4F-B915-3368689FED04}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -9893,7 +9896,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{7767BBDD-CF64-4DEB-91DC-1569A8E0FE50}"/>
+      <autoFilter ref="A41:N455" xr:uid="{A9AC63F2-B66A-4427-8093-1AA84BFD723E}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="3">
